--- a/pandastutorial-main/dataupdate.xlsx
+++ b/pandastutorial-main/dataupdate.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Destop\Pandas_workshop\pandastutorial-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E1C32-C2D9-4D04-A4B1-E873DF3ACE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="450" windowWidth="19755" windowHeight="7485"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weather" sheetId="1" r:id="rId1"/>
     <sheet name="Product" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="score" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <t>Day</t>
   </si>
@@ -112,17 +118,77 @@
   </si>
   <si>
     <t>รถบังคับ</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gender</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>อาทิตย์</t>
+  </si>
+  <si>
+    <t>นิตยา</t>
+  </si>
+  <si>
+    <t>โจโจ้</t>
+  </si>
+  <si>
+    <t>แก้มใส</t>
+  </si>
+  <si>
+    <t>ตั๊กแตน</t>
+  </si>
+  <si>
+    <t>เก๋ไก๋</t>
+  </si>
+  <si>
+    <t>วุฒิชัย</t>
+  </si>
+  <si>
+    <t>ชัยสิทธิ์</t>
+  </si>
+  <si>
+    <t>ธนาวุมิ</t>
+  </si>
+  <si>
+    <t>ชาย</t>
+  </si>
+  <si>
+    <t>หญิง</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -203,12 +269,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -250,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,9 +352,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +404,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,21 +596,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,7 +624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="27.6" thickBot="1">
       <c r="A2" s="1">
         <v>44166</v>
       </c>
@@ -535,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="27.6" thickBot="1">
       <c r="A3" s="1">
         <v>44167</v>
       </c>
@@ -549,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="27.6" thickBot="1">
       <c r="A4" s="1">
         <v>44168</v>
       </c>
@@ -563,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="27.6" thickBot="1">
       <c r="A5" s="1">
         <v>44169</v>
       </c>
@@ -577,7 +680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="27.6" thickBot="1">
       <c r="A6" s="1">
         <v>44170</v>
       </c>
@@ -591,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="27.6" thickBot="1">
       <c r="A7" s="1">
         <v>44171</v>
       </c>
@@ -605,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="27.6" thickBot="1">
       <c r="A8" s="1">
         <v>44172</v>
       </c>
@@ -619,7 +722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="27.6" thickBot="1">
       <c r="A9" s="1">
         <v>44173</v>
       </c>
@@ -633,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="27.6" thickBot="1">
       <c r="A10" s="1">
         <v>44174</v>
       </c>
@@ -647,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="27.6" thickBot="1">
       <c r="A11" s="1">
         <v>44175</v>
       </c>
@@ -661,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="27.6" thickBot="1">
       <c r="A12" s="1">
         <v>44176</v>
       </c>
@@ -675,7 +778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="27.6" thickBot="1">
       <c r="A13" s="1">
         <v>44177</v>
       </c>
@@ -689,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="27.6" thickBot="1">
       <c r="A14" s="1">
         <v>44178</v>
       </c>
@@ -703,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="27.6" thickBot="1">
       <c r="A15" s="1">
         <v>44179</v>
       </c>
@@ -717,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="27.6" thickBot="1">
       <c r="A16" s="1">
         <v>44180</v>
       </c>
@@ -731,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="27.6" thickBot="1">
       <c r="A17" s="1">
         <v>44181</v>
       </c>
@@ -745,7 +848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="27.6" thickBot="1">
       <c r="A18" s="1">
         <v>44182</v>
       </c>
@@ -759,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="27.6" thickBot="1">
       <c r="A19" s="1">
         <v>44183</v>
       </c>
@@ -773,7 +876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="27.6" thickBot="1">
       <c r="A20" s="1">
         <v>44184</v>
       </c>
@@ -787,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="27.6" thickBot="1">
       <c r="A21" s="1">
         <v>44185</v>
       </c>
@@ -801,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="27.6" thickBot="1">
       <c r="A22" s="1">
         <v>44186</v>
       </c>
@@ -815,7 +918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="27.6" thickBot="1">
       <c r="A23" s="1">
         <v>44187</v>
       </c>
@@ -829,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="27.6" thickBot="1">
       <c r="A24" s="1">
         <v>44188</v>
       </c>
@@ -843,7 +946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="27.6" thickBot="1">
       <c r="A25" s="1">
         <v>44189</v>
       </c>
@@ -857,7 +960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="27.6" thickBot="1">
       <c r="A26" s="1">
         <v>44190</v>
       </c>
@@ -871,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="27.6" thickBot="1">
       <c r="A27" s="1">
         <v>44191</v>
       </c>
@@ -885,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="27.6" thickBot="1">
       <c r="A28" s="1">
         <v>44192</v>
       </c>
@@ -899,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="27.6" thickBot="1">
       <c r="A29" s="1">
         <v>44193</v>
       </c>
@@ -913,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="27.6" thickBot="1">
       <c r="A30" s="1">
         <v>44194</v>
       </c>
@@ -927,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="27.6" thickBot="1">
       <c r="A31" s="1">
         <v>44195</v>
       </c>
@@ -948,21 +1051,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -973,7 +1076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -984,7 +1087,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -993,14 +1096,14 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1112,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +1121,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1029,7 +1132,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1038,7 +1141,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1049,7 +1152,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1060,7 +1163,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1174,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1082,7 +1185,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -1091,7 +1194,7 @@
       </c>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1102,7 +1205,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -1113,7 +1216,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1128,13 +1231,186 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>88</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>